--- a/result/团队日报总表.xlsx
+++ b/result/团队日报总表.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesle\Desktop\srcb_daily_report\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC43CA-8A4E-4FBD-8689-5B39ADF1902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -157,12 +151,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,15 +164,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,25 +211,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +259,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -314,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -349,10 +327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,40 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="33.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.53125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.59765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -646,13 +597,13 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D2">
-        <v>63.7</v>
+        <v>125.49</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -661,61 +612,61 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>63.7</v>
+        <v>145.49</v>
       </c>
       <c r="I2">
-        <v>0.42466666666666669</v>
+        <v>0.9699333333333334</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>4</v>
       </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
       <c r="X2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y2">
         <v>2</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -723,10 +674,10 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>23.599999999999991</v>
+        <v>29.8502</v>
       </c>
       <c r="D3">
-        <v>81.099999999999994</v>
+        <v>87.3502</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -738,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>91.1</v>
+        <v>97.3502</v>
       </c>
       <c r="I3">
-        <v>0.60733333333333328</v>
+        <v>0.6490013333333333</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -786,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -800,13 +751,13 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>106.7166</v>
       </c>
       <c r="D4">
-        <v>76.422200000000004</v>
+        <v>143.4722</v>
       </c>
       <c r="E4">
-        <v>13.8</v>
+        <v>41.4666</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -815,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>90.222200000000001</v>
+        <v>184.9388</v>
       </c>
       <c r="I4">
-        <v>0.45111099999999998</v>
+        <v>0.9246939999999999</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -836,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -854,22 +805,22 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y4">
         <v>3</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA4">
-        <v>1.333333333333333</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -939,8 +890,14 @@
       <c r="Y5">
         <v>2</v>
       </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -948,10 +905,10 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>24.52000000000001</v>
       </c>
       <c r="D6">
-        <v>84.525999999999996</v>
+        <v>109.046</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -963,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>84.525999999999996</v>
+        <v>109.046</v>
       </c>
       <c r="I6">
-        <v>0.5635066666666666</v>
+        <v>0.7269733333333334</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1016,8 +973,14 @@
       <c r="Y6">
         <v>2</v>
       </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1025,10 +988,10 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1040,37 +1003,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1079,16 +1042,16 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1096,10 +1059,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>9.7999999999999972</v>
+        <v>38.18</v>
       </c>
       <c r="D8">
-        <v>44.042499999999997</v>
+        <v>72.4225</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1111,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44.042499999999997</v>
+        <v>72.4225</v>
       </c>
       <c r="I8">
-        <v>0.29361666666666658</v>
+        <v>0.4828166666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1158,8 +1121,14 @@
       <c r="Y8">
         <v>2</v>
       </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1167,10 +1136,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>1.5729999999999931</v>
+        <v>44.07300000000001</v>
       </c>
       <c r="D9">
-        <v>114.10639999999999</v>
+        <v>156.6064</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1182,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>114.10639999999999</v>
+        <v>156.6064</v>
       </c>
       <c r="I9">
-        <v>0.76070933333333324</v>
+        <v>1.044042666666667</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1230,13 +1199,13 @@
         <v>2</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1244,13 +1213,13 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>0.78860000000000241</v>
+        <v>23.5552</v>
       </c>
       <c r="D10">
-        <v>61.435099999999998</v>
+        <v>84.2017</v>
       </c>
       <c r="E10">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1259,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78.335099999999997</v>
+        <v>101.1017</v>
       </c>
       <c r="I10">
-        <v>0.52223399999999998</v>
+        <v>0.6740113333333333</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1306,8 +1275,14 @@
       <c r="Y10">
         <v>2</v>
       </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1315,10 +1290,10 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>61.7</v>
+        <v>107.7</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1330,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>69.7</v>
+        <v>115.7</v>
       </c>
       <c r="I11">
-        <v>0.46466666666666667</v>
+        <v>0.7713333333333333</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1384,7 +1359,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1392,13 +1367,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>94.770000000000209</v>
+        <v>559.9758000000002</v>
       </c>
       <c r="D12">
-        <v>771.49379999999996</v>
+        <v>1113.9654</v>
       </c>
       <c r="E12">
-        <v>364.6</v>
+        <v>487.3342</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1407,43 +1382,43 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1136.0938000000001</v>
+        <v>1601.2996</v>
       </c>
       <c r="I12">
-        <v>0.7573958666666667</v>
+        <v>1.067533066666667</v>
       </c>
       <c r="J12">
         <v>65</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="L12">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
       <c r="P12">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="Q12">
-        <v>1.476923076923077</v>
+        <v>1.830769230769231</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="T12">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1452,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="X12">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1467,7 +1442,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1475,13 +1450,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>431.7586000000001</v>
       </c>
       <c r="D13">
-        <v>81.22</v>
+        <v>144.8112</v>
       </c>
       <c r="E13">
-        <v>128.8948</v>
+        <v>475.0622</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1490,43 +1465,43 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>210.1148</v>
+        <v>619.8734000000001</v>
       </c>
       <c r="I13">
-        <v>0.28015306666666667</v>
+        <v>0.8264978666666668</v>
       </c>
       <c r="J13">
         <v>65</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="M13">
         <v>14</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="Q13">
-        <v>1.138461538461538</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="R13">
         <v>45</v>
       </c>
       <c r="S13">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="T13">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -1535,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="X13">
-        <v>1.1100000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="Y13">
         <v>3</v>
@@ -1550,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1558,13 +1533,13 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>12.00000000000006</v>
+        <v>307.9600000000001</v>
       </c>
       <c r="D14">
-        <v>307.64120000000003</v>
+        <v>477.6012</v>
       </c>
       <c r="E14">
-        <v>132.79159999999999</v>
+        <v>258.7916</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1573,43 +1548,43 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>440.43279999999999</v>
+        <v>736.3928000000001</v>
       </c>
       <c r="I14">
-        <v>0.58724373333333335</v>
+        <v>0.9818570666666667</v>
       </c>
       <c r="J14">
         <v>65</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q14">
-        <v>0.69230769230769229</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="R14">
         <v>45</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1618,16 +1593,22 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="X14">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y14">
         <v>3</v>
       </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,13 +1616,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>349.2</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>179.5</v>
       </c>
       <c r="E15">
-        <v>563.02599999999995</v>
+        <v>762.726</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1650,43 +1631,43 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>593.02599999999995</v>
+        <v>942.226</v>
       </c>
       <c r="I15">
-        <v>0.91234769230769219</v>
+        <v>1.449578461538461</v>
       </c>
       <c r="J15">
         <v>60</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M15">
         <v>6</v>
       </c>
       <c r="N15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="Q15">
-        <v>0.91666666666666663</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="R15">
         <v>40</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="T15">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="U15">
         <v>6</v>
@@ -1695,16 +1676,22 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="X15">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Y15">
         <v>3</v>
       </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1712,13 +1699,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>349.9000000000001</v>
       </c>
       <c r="D16">
-        <v>90.8</v>
+        <v>168.8</v>
       </c>
       <c r="E16">
-        <v>328.2</v>
+        <v>525.1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1727,43 +1714,43 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>419</v>
+        <v>693.9000000000001</v>
       </c>
       <c r="I16">
-        <v>0.83799999999999997</v>
+        <v>1.3878</v>
       </c>
       <c r="J16">
         <v>60</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M16">
         <v>12</v>
       </c>
       <c r="N16">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q16">
-        <v>0.98333333333333328</v>
+        <v>1.183333333333333</v>
       </c>
       <c r="R16">
         <v>40</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T16">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -1772,22 +1759,22 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="X16">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="Y16">
         <v>2</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1795,13 +1782,13 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>20.5</v>
+        <v>343.8000000000001</v>
       </c>
       <c r="D17">
-        <v>103.8</v>
+        <v>163.8</v>
       </c>
       <c r="E17">
-        <v>385.32709999999997</v>
+        <v>648.6271</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1810,43 +1797,43 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>489.12709999999998</v>
+        <v>812.4271000000001</v>
       </c>
       <c r="I17">
-        <v>0.97825419999999996</v>
+        <v>1.6248542</v>
       </c>
       <c r="J17">
         <v>60</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M17">
         <v>6</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q17">
-        <v>0.6</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="R17">
         <v>40</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U17">
         <v>5</v>
@@ -1855,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="X17">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1870,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1878,13 +1865,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>40.999999999999943</v>
+        <v>339.0588</v>
       </c>
       <c r="D18">
-        <v>13.9</v>
+        <v>28.1</v>
       </c>
       <c r="E18">
-        <v>479.45</v>
+        <v>763.3088</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1893,43 +1880,43 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>493.35</v>
+        <v>791.4088</v>
       </c>
       <c r="I18">
-        <v>0.98669999999999991</v>
+        <v>1.5828176</v>
       </c>
       <c r="J18">
         <v>60</v>
       </c>
       <c r="K18">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="Q18">
-        <v>0.91666666666666663</v>
+        <v>1.183333333333333</v>
       </c>
       <c r="R18">
         <v>40</v>
       </c>
       <c r="S18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="T18">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1938,23 +1925,22 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X18">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="Y18">
         <v>2</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA18">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/团队日报总表.xlsx
+++ b/result/团队日报总表.xlsx
@@ -597,10 +597,10 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>81.79000000000001</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>125.49</v>
+        <v>145.49</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>145.49</v>
+        <v>165.49</v>
       </c>
       <c r="I2">
-        <v>0.9699333333333334</v>
+        <v>1.103266666666667</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -674,7 +674,7 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>29.8502</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>87.3502</v>
@@ -695,7 +695,7 @@
         <v>0.6490013333333333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -751,10 +751,10 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>106.7166</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>143.4722</v>
+        <v>152.4722</v>
       </c>
       <c r="E4">
         <v>41.4666</v>
@@ -766,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>184.9388</v>
+        <v>193.9388</v>
       </c>
       <c r="I4">
-        <v>0.9246939999999999</v>
+        <v>0.9696939999999999</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -905,7 +905,7 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>24.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>109.046</v>
@@ -988,7 +988,7 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0.006666666666666667</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>2</v>
@@ -1059,10 +1059,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>38.18</v>
+        <v>20.09</v>
       </c>
       <c r="D8">
-        <v>72.4225</v>
+        <v>92.5125</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>72.4225</v>
+        <v>92.5125</v>
       </c>
       <c r="I8">
-        <v>0.4828166666666667</v>
+        <v>0.61675</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>44.07300000000001</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>156.6064</v>
+        <v>161.6064</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>156.6064</v>
+        <v>161.6064</v>
       </c>
       <c r="I9">
-        <v>1.044042666666667</v>
+        <v>1.077376</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1178,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -1213,10 +1213,10 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>23.5552</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>84.2017</v>
+        <v>86.2017</v>
       </c>
       <c r="E10">
         <v>16.9</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>101.1017</v>
+        <v>103.1017</v>
       </c>
       <c r="I10">
-        <v>0.6740113333333333</v>
+        <v>0.6873446666666666</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>107.7</v>
@@ -1367,13 +1367,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>559.9758000000002</v>
+        <v>46.29999999999995</v>
       </c>
       <c r="D12">
-        <v>1113.9654</v>
+        <v>1120.2654</v>
       </c>
       <c r="E12">
-        <v>487.3342</v>
+        <v>527.3342</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1601.2996</v>
+        <v>1647.5996</v>
       </c>
       <c r="I12">
-        <v>1.067533066666667</v>
+        <v>1.098399733333333</v>
       </c>
       <c r="J12">
         <v>65</v>
       </c>
       <c r="K12">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>82</v>
@@ -1400,25 +1400,25 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
       <c r="P12">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q12">
-        <v>1.830769230769231</v>
+        <v>1.861538461538462</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
       <c r="S12">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X12">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1450,13 +1450,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>431.7586000000001</v>
+        <v>54.00000000000011</v>
       </c>
       <c r="D13">
-        <v>144.8112</v>
+        <v>178.8112</v>
       </c>
       <c r="E13">
-        <v>475.0622</v>
+        <v>495.0622</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1465,16 +1465,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>619.8734000000001</v>
+        <v>673.8734000000001</v>
       </c>
       <c r="I13">
-        <v>0.8264978666666668</v>
+        <v>0.8984978666666668</v>
       </c>
       <c r="J13">
         <v>65</v>
       </c>
       <c r="K13">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>95</v>
@@ -1483,25 +1483,25 @@
         <v>14</v>
       </c>
       <c r="N13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q13">
-        <v>2.076923076923077</v>
+        <v>2.123076923076923</v>
       </c>
       <c r="R13">
         <v>45</v>
       </c>
       <c r="S13">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X13">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Y13">
         <v>3</v>
@@ -1533,10 +1533,10 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>307.9600000000001</v>
+        <v>40.23400000000004</v>
       </c>
       <c r="D14">
-        <v>477.6012</v>
+        <v>517.8352</v>
       </c>
       <c r="E14">
         <v>258.7916</v>
@@ -1548,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>736.3928000000001</v>
+        <v>776.6268</v>
       </c>
       <c r="I14">
-        <v>0.9818570666666667</v>
+        <v>1.0355024</v>
       </c>
       <c r="J14">
         <v>65</v>
       </c>
       <c r="K14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Q14">
-        <v>0.8461538461538461</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="R14">
         <v>45</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X14">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="Y14">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>349.2</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>179.5</v>
+        <v>219.5</v>
       </c>
       <c r="E15">
-        <v>762.726</v>
+        <v>796.726</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1631,22 +1631,22 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>942.226</v>
+        <v>1016.226</v>
       </c>
       <c r="I15">
-        <v>1.449578461538461</v>
+        <v>1.563424615384615</v>
       </c>
       <c r="J15">
         <v>60</v>
       </c>
       <c r="K15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>42</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>28</v>
@@ -1655,31 +1655,31 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q15">
-        <v>1.266666666666667</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="R15">
         <v>40</v>
       </c>
       <c r="S15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>64</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X15">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="Y15">
         <v>3</v>
@@ -1699,13 +1699,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>349.9000000000001</v>
+        <v>14.00000000000011</v>
       </c>
       <c r="D16">
         <v>168.8</v>
       </c>
       <c r="E16">
-        <v>525.1</v>
+        <v>539.1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>693.9000000000001</v>
+        <v>707.9000000000001</v>
       </c>
       <c r="I16">
-        <v>1.3878</v>
+        <v>1.4158</v>
       </c>
       <c r="J16">
         <v>60</v>
       </c>
       <c r="K16">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>28</v>
@@ -1732,25 +1732,25 @@
         <v>12</v>
       </c>
       <c r="N16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q16">
-        <v>1.183333333333333</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="R16">
         <v>40</v>
       </c>
       <c r="S16">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X16">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>343.8000000000001</v>
+        <v>1.13686837721616E-13</v>
       </c>
       <c r="D17">
         <v>163.8</v>
@@ -1806,7 +1806,7 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>29</v>
@@ -1830,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="S17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>50</v>
@@ -1865,13 +1865,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>339.0588</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>28.1</v>
       </c>
       <c r="E18">
-        <v>763.3088</v>
+        <v>813.3088</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1880,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>791.4088</v>
+        <v>841.4088</v>
       </c>
       <c r="I18">
-        <v>1.5828176</v>
+        <v>1.6828176</v>
       </c>
       <c r="J18">
         <v>60</v>
       </c>
       <c r="K18">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>32</v>
@@ -1913,7 +1913,7 @@
         <v>40</v>
       </c>
       <c r="S18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>65</v>

--- a/result/团队日报总表.xlsx
+++ b/result/团队日报总表.xlsx
@@ -597,10 +597,10 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>145.49</v>
+        <v>165.49</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>165.49</v>
+        <v>185.49</v>
       </c>
       <c r="I2">
-        <v>1.103266666666667</v>
+        <v>1.2366</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10.70000000000002</v>
       </c>
       <c r="D4">
-        <v>152.4722</v>
+        <v>154.1722</v>
       </c>
       <c r="E4">
         <v>41.4666</v>
@@ -766,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>193.9388</v>
+        <v>195.6388</v>
       </c>
       <c r="I4">
-        <v>0.9696939999999999</v>
+        <v>0.978194</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -828,10 +828,10 @@
         <v>150</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="D6">
-        <v>109.046</v>
+        <v>109.446</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>109.046</v>
+        <v>109.446</v>
       </c>
       <c r="I6">
-        <v>0.7269733333333334</v>
+        <v>0.72964</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0.006666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>20.09</v>
+        <v>20.57000000000001</v>
       </c>
       <c r="D8">
-        <v>92.5125</v>
+        <v>92.99250000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>92.5125</v>
+        <v>92.99250000000001</v>
       </c>
       <c r="I8">
-        <v>0.61675</v>
+        <v>0.61995</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>161.6064</v>
+        <v>165.6064</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>161.6064</v>
+        <v>165.6064</v>
       </c>
       <c r="I9">
-        <v>1.077376</v>
+        <v>1.104042666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>8.099999999999994</v>
       </c>
       <c r="D10">
-        <v>86.2017</v>
+        <v>92.3017</v>
       </c>
       <c r="E10">
         <v>16.9</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>103.1017</v>
+        <v>109.2017</v>
       </c>
       <c r="I10">
-        <v>0.6873446666666666</v>
+        <v>0.7280113333333332</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>46.29999999999995</v>
+        <v>118.4160999999999</v>
       </c>
       <c r="D12">
-        <v>1120.2654</v>
+        <v>1162.3815</v>
       </c>
       <c r="E12">
-        <v>527.3342</v>
+        <v>557.3342</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1382,43 +1382,43 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1647.5996</v>
+        <v>1719.7157</v>
       </c>
       <c r="I12">
-        <v>1.098399733333333</v>
+        <v>1.146477133333333</v>
       </c>
       <c r="J12">
         <v>65</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
       <c r="P12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
-        <v>1.861538461538462</v>
+        <v>1.892307692307692</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X12">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1450,13 +1450,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>54.00000000000011</v>
+        <v>114</v>
       </c>
       <c r="D13">
         <v>178.8112</v>
       </c>
       <c r="E13">
-        <v>495.0622</v>
+        <v>555.0622</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1465,16 +1465,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>673.8734000000001</v>
+        <v>733.8733999999999</v>
       </c>
       <c r="I13">
-        <v>0.8984978666666668</v>
+        <v>0.9784978666666666</v>
       </c>
       <c r="J13">
         <v>65</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>95</v>
@@ -1483,25 +1483,25 @@
         <v>14</v>
       </c>
       <c r="N13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q13">
-        <v>2.123076923076923</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="R13">
         <v>45</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X13">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="Y13">
         <v>3</v>
@@ -1533,13 +1533,13 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>40.23400000000004</v>
+        <v>52.03400000000011</v>
       </c>
       <c r="D14">
-        <v>517.8352</v>
+        <v>519.6352000000001</v>
       </c>
       <c r="E14">
-        <v>258.7916</v>
+        <v>268.7916</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>776.6268</v>
+        <v>788.4268000000001</v>
       </c>
       <c r="I14">
-        <v>1.0355024</v>
+        <v>1.051235733333334</v>
       </c>
       <c r="J14">
         <v>65</v>
@@ -1616,13 +1616,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>121.0000000000001</v>
       </c>
       <c r="D15">
-        <v>219.5</v>
+        <v>229.5</v>
       </c>
       <c r="E15">
-        <v>796.726</v>
+        <v>833.726</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1016.226</v>
+        <v>1063.226</v>
       </c>
       <c r="I15">
-        <v>1.563424615384615</v>
+        <v>1.635732307692308</v>
       </c>
       <c r="J15">
         <v>60</v>
@@ -1699,13 +1699,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>14.00000000000011</v>
+        <v>54.00000000000011</v>
       </c>
       <c r="D16">
         <v>168.8</v>
       </c>
       <c r="E16">
-        <v>539.1</v>
+        <v>579.1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>707.9000000000001</v>
+        <v>747.9000000000001</v>
       </c>
       <c r="I16">
-        <v>1.4158</v>
+        <v>1.4958</v>
       </c>
       <c r="J16">
         <v>60</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>28</v>
@@ -1732,25 +1732,25 @@
         <v>12</v>
       </c>
       <c r="N16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16">
-        <v>1.216666666666667</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="R16">
         <v>40</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X16">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1782,13 +1782,13 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>1.13686837721616E-13</v>
+        <v>69.60000000000002</v>
       </c>
       <c r="D17">
         <v>163.8</v>
       </c>
       <c r="E17">
-        <v>648.6271</v>
+        <v>718.2271</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1797,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>812.4271000000001</v>
+        <v>882.0271</v>
       </c>
       <c r="I17">
-        <v>1.6248542</v>
+        <v>1.7640542</v>
       </c>
       <c r="J17">
         <v>60</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>29</v>
@@ -1815,25 +1815,25 @@
         <v>6</v>
       </c>
       <c r="N17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q17">
-        <v>0.9833333333333333</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="R17">
         <v>40</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U17">
         <v>5</v>
@@ -1842,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X17">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1865,13 +1865,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>28.1</v>
       </c>
       <c r="E18">
-        <v>813.3088</v>
+        <v>823.3088</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1880,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>841.4088</v>
+        <v>851.4088</v>
       </c>
       <c r="I18">
-        <v>1.6828176</v>
+        <v>1.7028176</v>
       </c>
       <c r="J18">
         <v>60</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>32</v>
@@ -1898,25 +1898,25 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q18">
-        <v>1.183333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="R18">
         <v>40</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X18">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y18">
         <v>2</v>

--- a/result/团队日报总表.xlsx
+++ b/result/团队日报总表.xlsx
@@ -145,7 +145,7 @@
     <t>黄旭</t>
   </si>
   <si>
-    <t>inf</t>
+    <t>以下为2025年1月业绩填报</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,13 +597,13 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>20.7</v>
       </c>
       <c r="D2">
-        <v>165.49</v>
+        <v>15.7</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>185.49</v>
+        <v>20.7</v>
       </c>
       <c r="I2">
-        <v>1.2366</v>
+        <v>0.138</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>3</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>87.3502</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>97.3502</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6490013333333333</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -751,13 +751,13 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>10.70000000000002</v>
+        <v>5.35</v>
       </c>
       <c r="D4">
-        <v>154.1722</v>
+        <v>5.35</v>
       </c>
       <c r="E4">
-        <v>41.4666</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>195.6388</v>
+        <v>5.35</v>
       </c>
       <c r="I4">
-        <v>0.978194</v>
+        <v>0.02675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>3</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4">
-        <v>3.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -828,10 +828,10 @@
         <v>150</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>0.3999999999999915</v>
+        <v>25.8927</v>
       </c>
       <c r="D6">
-        <v>109.446</v>
+        <v>25.8927</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>109.446</v>
+        <v>25.8927</v>
       </c>
       <c r="I6">
-        <v>0.72964</v>
+        <v>0.172618</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -944,10 +944,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>3</v>
@@ -956,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -965,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>2</v>
@@ -988,10 +985,10 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,28 +1000,28 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -1033,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1042,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -1059,10 +1056,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>20.57000000000001</v>
+        <v>48.46</v>
       </c>
       <c r="D8">
-        <v>92.99250000000001</v>
+        <v>48.46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>92.99250000000001</v>
+        <v>48.46</v>
       </c>
       <c r="I8">
-        <v>0.61995</v>
+        <v>0.3230666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1095,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>3</v>
@@ -1104,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1113,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1136,10 +1133,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>165.6064</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>165.6064</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1.104042666666667</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1172,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>3</v>
@@ -1181,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1190,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>2</v>
@@ -1213,13 +1210,13 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>8.099999999999994</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>92.3017</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1228,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>109.2017</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>0.7280113333333332</v>
+        <v>0.16</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1249,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>3</v>
@@ -1258,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1267,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>2</v>
@@ -1290,13 +1287,13 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="D11">
-        <v>107.7</v>
+        <v>1.05</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1305,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>115.7</v>
+        <v>1.05</v>
       </c>
       <c r="I11">
-        <v>0.7713333333333333</v>
+        <v>0.007</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1332,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1367,13 +1364,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>118.4160999999999</v>
+        <v>195.3921</v>
       </c>
       <c r="D12">
-        <v>1162.3815</v>
+        <v>109.8921</v>
       </c>
       <c r="E12">
-        <v>557.3342</v>
+        <v>85.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1382,43 +1379,43 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1719.7157</v>
+        <v>195.3921</v>
       </c>
       <c r="I12">
-        <v>1.146477133333333</v>
+        <v>0.1302614</v>
       </c>
       <c r="J12">
         <v>65</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="Q12">
-        <v>1.892307692307692</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T12">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1427,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1450,13 +1447,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>114</v>
+        <v>555.77</v>
       </c>
       <c r="D13">
-        <v>178.8112</v>
+        <v>21.62</v>
       </c>
       <c r="E13">
-        <v>555.0622</v>
+        <v>534.15</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1465,22 +1462,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>733.8733999999999</v>
+        <v>555.77</v>
       </c>
       <c r="I13">
-        <v>0.9784978666666666</v>
+        <v>0.7410266666666666</v>
       </c>
       <c r="J13">
         <v>65</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>36</v>
@@ -1489,40 +1486,40 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="Q13">
-        <v>2.230769230769231</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="R13">
         <v>45</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T13">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X13">
-        <v>2.58</v>
+        <v>0.89</v>
       </c>
       <c r="Y13">
         <v>3</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1533,13 +1530,13 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>52.03400000000011</v>
+        <v>123.2988</v>
       </c>
       <c r="D14">
-        <v>519.6352000000001</v>
+        <v>123.2988</v>
       </c>
       <c r="E14">
-        <v>268.7916</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1548,43 +1545,43 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>788.4268000000001</v>
+        <v>123.2988</v>
       </c>
       <c r="I14">
-        <v>1.051235733333334</v>
+        <v>0.1643984</v>
       </c>
       <c r="J14">
         <v>65</v>
       </c>
       <c r="K14">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>46</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>10</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="Q14">
-        <v>0.9538461538461539</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="R14">
         <v>45</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T14">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1593,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="X14">
-        <v>0.58</v>
+        <v>0.2</v>
       </c>
       <c r="Y14">
         <v>3</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1616,13 +1613,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>121.0000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D15">
-        <v>229.5</v>
+        <v>48.2</v>
       </c>
       <c r="E15">
-        <v>833.726</v>
+        <v>35.4</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1631,64 +1628,64 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1063.226</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I15">
-        <v>1.635732307692308</v>
+        <v>0.1286153846153846</v>
       </c>
       <c r="J15">
         <v>60</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>1.383333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="R15">
         <v>40</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>1.92</v>
+        <v>0.05</v>
       </c>
       <c r="Y15">
         <v>3</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1699,13 +1696,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>54.00000000000011</v>
+        <v>157.4</v>
       </c>
       <c r="D16">
-        <v>168.8</v>
+        <v>31.5</v>
       </c>
       <c r="E16">
-        <v>579.1</v>
+        <v>125.9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1714,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>747.9000000000001</v>
+        <v>157.4</v>
       </c>
       <c r="I16">
-        <v>1.4958</v>
+        <v>0.3148</v>
       </c>
       <c r="J16">
         <v>60</v>
@@ -1726,22 +1723,22 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>1.233333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="R16">
         <v>40</v>
@@ -1750,19 +1747,19 @@
         <v>3</v>
       </c>
       <c r="T16">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="X16">
-        <v>1.25</v>
+        <v>0.08</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1782,13 +1779,13 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>69.60000000000002</v>
+        <v>149.9</v>
       </c>
       <c r="D17">
-        <v>163.8</v>
+        <v>69.8</v>
       </c>
       <c r="E17">
-        <v>718.2271</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1797,55 +1794,55 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>882.0271</v>
+        <v>149.9</v>
       </c>
       <c r="I17">
-        <v>1.7640542</v>
+        <v>0.2998</v>
       </c>
       <c r="J17">
         <v>60</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="Q17">
-        <v>1.016666666666667</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="R17">
         <v>40</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="U17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="X17">
-        <v>1.42</v>
+        <v>0.18</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1865,13 +1862,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>104.5</v>
       </c>
       <c r="D18">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>823.3088</v>
+        <v>104.5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1880,43 +1877,43 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>851.4088</v>
+        <v>104.5</v>
       </c>
       <c r="I18">
-        <v>1.7028176</v>
+        <v>0.209</v>
       </c>
       <c r="J18">
         <v>60</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="Q18">
-        <v>1.2</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="R18">
         <v>40</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T18">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1925,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="X18">
-        <v>1.65</v>
+        <v>0.18</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -1938,6 +1935,14 @@
       </c>
       <c r="AA18">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result/团队日报总表.xlsx
+++ b/result/团队日报总表.xlsx
@@ -674,13 +674,13 @@
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2313333333333334</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -751,10 +751,10 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>5.35</v>
+        <v>28.82</v>
       </c>
       <c r="D4">
-        <v>5.35</v>
+        <v>28.82</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5.35</v>
+        <v>28.82</v>
       </c>
       <c r="I4">
-        <v>0.02675</v>
+        <v>0.1441</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y4">
         <v>3</v>
@@ -905,10 +905,10 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>25.8927</v>
+        <v>33.8927</v>
       </c>
       <c r="D6">
-        <v>25.8927</v>
+        <v>33.8927</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>25.8927</v>
+        <v>33.8927</v>
       </c>
       <c r="I6">
-        <v>0.172618</v>
+        <v>0.2259513333333333</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>150</v>
       </c>
       <c r="C8">
-        <v>48.46</v>
+        <v>58.46</v>
       </c>
       <c r="D8">
-        <v>48.46</v>
+        <v>58.46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48.46</v>
+        <v>58.46</v>
       </c>
       <c r="I8">
-        <v>0.3230666666666667</v>
+        <v>0.3897333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>48.2</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>48.2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>48.2</v>
       </c>
       <c r="I9">
-        <v>0.2933333333333333</v>
+        <v>0.3213333333333334</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>3</v>
@@ -1196,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1210,10 +1210,10 @@
         <v>150</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>30.6</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>30.6</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>30.6</v>
       </c>
       <c r="I10">
-        <v>0.16</v>
+        <v>0.204</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1287,10 +1287,10 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>18.85</v>
       </c>
       <c r="D11">
-        <v>1.05</v>
+        <v>18.85</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.05</v>
+        <v>18.85</v>
       </c>
       <c r="I11">
-        <v>0.007</v>
+        <v>0.1256666666666667</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1364,13 +1364,13 @@
         <v>1500</v>
       </c>
       <c r="C12">
-        <v>195.3921</v>
+        <v>331.3954</v>
       </c>
       <c r="D12">
-        <v>109.8921</v>
+        <v>220.8954</v>
       </c>
       <c r="E12">
-        <v>85.5</v>
+        <v>110.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1379,55 +1379,55 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>195.3921</v>
+        <v>331.3954</v>
       </c>
       <c r="I12">
-        <v>0.1302614</v>
+        <v>0.2209302666666667</v>
       </c>
       <c r="J12">
         <v>65</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q12">
-        <v>0.1538461538461539</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
       <c r="S12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="T12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="X12">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1447,13 +1447,13 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>555.77</v>
+        <v>826.72</v>
       </c>
       <c r="D13">
-        <v>21.62</v>
+        <v>62.07</v>
       </c>
       <c r="E13">
-        <v>534.15</v>
+        <v>764.65</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>555.77</v>
+        <v>826.72</v>
       </c>
       <c r="I13">
-        <v>0.7410266666666666</v>
+        <v>1.102293333333333</v>
       </c>
       <c r="J13">
         <v>65</v>
       </c>
       <c r="K13">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1480,25 +1480,25 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="Q13">
-        <v>0.6307692307692307</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="R13">
         <v>45</v>
       </c>
       <c r="S13">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="T13">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="X13">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="Y13">
         <v>3</v>
@@ -1530,13 +1530,13 @@
         <v>750</v>
       </c>
       <c r="C14">
-        <v>123.2988</v>
+        <v>180.0454</v>
       </c>
       <c r="D14">
-        <v>123.2988</v>
+        <v>175.0454</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1545,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>123.2988</v>
+        <v>180.0454</v>
       </c>
       <c r="I14">
-        <v>0.1643984</v>
+        <v>0.2400605333333333</v>
       </c>
       <c r="J14">
         <v>65</v>
       </c>
       <c r="K14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1569,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q14">
-        <v>0.3230769230769231</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="R14">
         <v>45</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X14">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="Y14">
         <v>3</v>
@@ -1613,13 +1613,13 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>83.59999999999999</v>
+        <v>145.2</v>
       </c>
       <c r="D15">
-        <v>48.2</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>35.4</v>
+        <v>67.2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.59999999999999</v>
+        <v>145.2</v>
       </c>
       <c r="I15">
-        <v>0.1286153846153846</v>
+        <v>0.2233846153846154</v>
       </c>
       <c r="J15">
         <v>60</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q15">
-        <v>0.03333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R15">
         <v>40</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X15">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="Y15">
         <v>3</v>
@@ -1696,13 +1696,13 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>157.4</v>
+        <v>174.4</v>
       </c>
       <c r="D16">
         <v>31.5</v>
       </c>
       <c r="E16">
-        <v>125.9</v>
+        <v>142.9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>157.4</v>
+        <v>174.4</v>
       </c>
       <c r="I16">
-        <v>0.3148</v>
+        <v>0.3488</v>
       </c>
       <c r="J16">
         <v>60</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1729,46 +1729,46 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0.05</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="R16">
         <v>40</v>
       </c>
       <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>0.12</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
         <v>3</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>3</v>
-      </c>
-      <c r="X16">
-        <v>0.08</v>
-      </c>
-      <c r="Y16">
-        <v>2</v>
-      </c>
-      <c r="Z16">
-        <v>2</v>
-      </c>
       <c r="AA16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1779,13 +1779,13 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>149.9</v>
+        <v>214.9</v>
       </c>
       <c r="D17">
-        <v>69.8</v>
+        <v>119.8</v>
       </c>
       <c r="E17">
-        <v>80.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1794,43 +1794,43 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>149.9</v>
+        <v>214.9</v>
       </c>
       <c r="I17">
-        <v>0.2998</v>
+        <v>0.4298</v>
       </c>
       <c r="J17">
         <v>60</v>
       </c>
       <c r="K17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q17">
-        <v>0.1166666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="R17">
         <v>40</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X17">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1862,13 +1862,13 @@
         <v>500</v>
       </c>
       <c r="C18">
-        <v>104.5</v>
+        <v>217.95</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>104.5</v>
+        <v>217.95</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1877,43 +1877,43 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>104.5</v>
+        <v>217.95</v>
       </c>
       <c r="I18">
-        <v>0.209</v>
+        <v>0.4359</v>
       </c>
       <c r="J18">
         <v>60</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Q18">
-        <v>0.1166666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="R18">
         <v>40</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="X18">
-        <v>0.18</v>
+        <v>0.52</v>
       </c>
       <c r="Y18">
         <v>2</v>
